--- a/Jogos_do_Dia/2023-08-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>League</t>
   </si>
@@ -121,6 +121,9 @@
     <t>Odds_Corners_Over115</t>
   </si>
   <si>
+    <t>South Korea K League 2</t>
+  </si>
+  <si>
     <t>China Chinese Super League</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>South America Copa Libertadores</t>
   </si>
   <si>
+    <t>07:30:00</t>
+  </si>
+  <si>
     <t>08:35:00</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>Ansan Greeners</t>
+  </si>
+  <si>
     <t>Shandong Luneng</t>
   </si>
   <si>
@@ -187,12 +196,12 @@
     <t>PSV</t>
   </si>
   <si>
+    <t>AEK Athens</t>
+  </si>
+  <si>
     <t>KÍ</t>
   </si>
   <si>
-    <t>AEK Athens</t>
-  </si>
-  <si>
     <t>Sporting Braga</t>
   </si>
   <si>
@@ -214,6 +223,9 @@
     <t>Internacional</t>
   </si>
   <si>
+    <t>Cheongju</t>
+  </si>
+  <si>
     <t>Chengdu Better City FC</t>
   </si>
   <si>
@@ -238,10 +250,10 @@
     <t>Sturm Graz</t>
   </si>
   <si>
+    <t>Dinamo Zagreb</t>
+  </si>
+  <si>
     <t>Molde</t>
-  </si>
-  <si>
-    <t>Dinamo Zagreb</t>
   </si>
   <si>
     <t>Bačka Topola</t>
@@ -624,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,352 +757,352 @@
         <v>45146</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G2">
-        <v>2.45</v>
+        <v>2.95</v>
       </c>
       <c r="H2">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I2">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N2">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="O2">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="P2">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="Q2">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="R2">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S2">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W2">
-        <v>2.56</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="Y2">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="Z2">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AA2">
-        <v>3.07</v>
+        <v>2.71</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2">
         <v>45146</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>1.78</v>
+        <v>2.45</v>
       </c>
       <c r="H3">
-        <v>3.63</v>
+        <v>3.2</v>
       </c>
       <c r="I3">
-        <v>4.69</v>
+        <v>3.1</v>
       </c>
       <c r="J3">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="P3">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="Q3">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S3">
         <v>1.91</v>
       </c>
       <c r="T3">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1.8</v>
+        <v>2.56</v>
       </c>
       <c r="X3">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="Y3">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="Z3">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="AA3">
-        <v>2.43</v>
+        <v>3.07</v>
       </c>
       <c r="AB3">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>45146</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G4">
-        <v>2.54</v>
+        <v>1.53</v>
       </c>
       <c r="H4">
-        <v>3.46</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>2.58</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L4">
         <v>1.2</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N4">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="O4">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="P4">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
       </c>
       <c r="R4">
+        <v>1.8</v>
+      </c>
+      <c r="S4">
+        <v>1.91</v>
+      </c>
+      <c r="T4">
+        <v>1.2</v>
+      </c>
+      <c r="U4">
+        <v>1.22</v>
+      </c>
+      <c r="V4">
+        <v>2.05</v>
+      </c>
+      <c r="W4">
+        <v>1.8</v>
+      </c>
+      <c r="X4">
+        <v>0.5</v>
+      </c>
+      <c r="Y4">
+        <v>1.33</v>
+      </c>
+      <c r="Z4">
+        <v>1.1</v>
+      </c>
+      <c r="AA4">
+        <v>2.43</v>
+      </c>
+      <c r="AB4">
+        <v>1.33</v>
+      </c>
+      <c r="AC4">
+        <v>6.5</v>
+      </c>
+      <c r="AD4">
+        <v>3.75</v>
+      </c>
+      <c r="AE4">
+        <v>1.24</v>
+      </c>
+      <c r="AF4">
         <v>1.53</v>
       </c>
-      <c r="S4">
-        <v>2.38</v>
-      </c>
-      <c r="T4">
-        <v>1.46</v>
-      </c>
-      <c r="U4">
-        <v>1.28</v>
-      </c>
-      <c r="V4">
-        <v>1.55</v>
-      </c>
-      <c r="W4">
-        <v>1.44</v>
-      </c>
-      <c r="X4">
-        <v>1.2</v>
-      </c>
-      <c r="Y4">
-        <v>1.2</v>
-      </c>
-      <c r="Z4">
-        <v>1.3</v>
-      </c>
-      <c r="AA4">
-        <v>2.5</v>
-      </c>
-      <c r="AB4">
-        <v>1.68</v>
-      </c>
-      <c r="AC4">
-        <v>5.5</v>
-      </c>
-      <c r="AD4">
-        <v>2.45</v>
-      </c>
-      <c r="AE4">
-        <v>1.29</v>
-      </c>
-      <c r="AF4">
-        <v>1.63</v>
-      </c>
       <c r="AG4">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AH4">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="AI4">
-        <v>3.48</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>45146</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G5">
-        <v>6.92</v>
+        <v>2.2</v>
       </c>
       <c r="H5">
-        <v>4.55</v>
+        <v>3.6</v>
       </c>
       <c r="I5">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="J5">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K5">
-        <v>17.25</v>
+        <v>16</v>
       </c>
       <c r="L5">
         <v>1.2</v>
@@ -1099,70 +1111,70 @@
         <v>4</v>
       </c>
       <c r="N5">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="O5">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="P5">
+        <v>1.28</v>
+      </c>
+      <c r="Q5">
+        <v>3.2</v>
+      </c>
+      <c r="R5">
+        <v>1.53</v>
+      </c>
+      <c r="S5">
+        <v>2.38</v>
+      </c>
+      <c r="T5">
+        <v>1.46</v>
+      </c>
+      <c r="U5">
+        <v>1.28</v>
+      </c>
+      <c r="V5">
+        <v>1.55</v>
+      </c>
+      <c r="W5">
+        <v>1.44</v>
+      </c>
+      <c r="X5">
+        <v>1.2</v>
+      </c>
+      <c r="Y5">
+        <v>1.2</v>
+      </c>
+      <c r="Z5">
         <v>1.3</v>
       </c>
-      <c r="Q5">
-        <v>3.3</v>
-      </c>
-      <c r="R5">
-        <v>1.74</v>
-      </c>
-      <c r="S5">
-        <v>1.9</v>
-      </c>
-      <c r="T5">
-        <v>2.7</v>
-      </c>
-      <c r="U5">
-        <v>1.18</v>
-      </c>
-      <c r="V5">
-        <v>1.11</v>
-      </c>
-      <c r="W5">
-        <v>1.7</v>
-      </c>
-      <c r="X5">
-        <v>2.6</v>
-      </c>
-      <c r="Y5">
-        <v>1.55</v>
-      </c>
-      <c r="Z5">
-        <v>1.54</v>
-      </c>
       <c r="AA5">
-        <v>3.09</v>
+        <v>2.5</v>
       </c>
       <c r="AB5">
-        <v>7</v>
+        <v>1.68</v>
       </c>
       <c r="AC5">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="AD5">
-        <v>1.12</v>
+        <v>2.45</v>
       </c>
       <c r="AE5">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AF5">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="AG5">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AH5">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="AI5">
-        <v>2.72</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1173,103 +1185,103 @@
         <v>45146</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G6">
-        <v>2.32</v>
+        <v>5.5</v>
       </c>
       <c r="H6">
-        <v>3.49</v>
+        <v>4.4</v>
       </c>
       <c r="I6">
-        <v>2.82</v>
+        <v>1.45</v>
       </c>
       <c r="J6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K6">
-        <v>11.5</v>
+        <v>17.25</v>
       </c>
       <c r="L6">
+        <v>1.2</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1.57</v>
+      </c>
+      <c r="O6">
+        <v>2.25</v>
+      </c>
+      <c r="P6">
         <v>1.3</v>
       </c>
-      <c r="M6">
-        <v>3.65</v>
-      </c>
-      <c r="N6">
-        <v>1.8</v>
-      </c>
-      <c r="O6">
-        <v>1.96</v>
-      </c>
-      <c r="P6">
-        <v>1.36</v>
-      </c>
       <c r="Q6">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="R6">
+        <v>1.74</v>
+      </c>
+      <c r="S6">
+        <v>1.9</v>
+      </c>
+      <c r="T6">
+        <v>2.7</v>
+      </c>
+      <c r="U6">
+        <v>1.18</v>
+      </c>
+      <c r="V6">
+        <v>1.11</v>
+      </c>
+      <c r="W6">
         <v>1.7</v>
       </c>
-      <c r="S6">
-        <v>2.05</v>
-      </c>
-      <c r="T6">
-        <v>1.3</v>
-      </c>
-      <c r="U6">
-        <v>1.3</v>
-      </c>
-      <c r="V6">
-        <v>1.74</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
       <c r="X6">
-        <v>0.63</v>
+        <v>2.6</v>
       </c>
       <c r="Y6">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Z6">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="AA6">
-        <v>3.23</v>
+        <v>3.09</v>
       </c>
       <c r="AB6">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="AC6">
-        <v>7.05</v>
+        <v>9</v>
       </c>
       <c r="AD6">
-        <v>2.75</v>
+        <v>1.12</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF6">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="AG6">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AH6">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="AI6">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1280,43 +1292,43 @@
         <v>45146</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G7">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="H7">
-        <v>3.56</v>
+        <v>3.7</v>
       </c>
       <c r="I7">
-        <v>3.63</v>
+        <v>2.86</v>
       </c>
       <c r="J7">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="L7">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M7">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="N7">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="O7">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="P7">
         <v>1.36</v>
@@ -1325,141 +1337,141 @@
         <v>3</v>
       </c>
       <c r="R7">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T7">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U7">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V7">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="Y7">
-        <v>2.27</v>
+        <v>1.6</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AA7">
-        <v>2.27</v>
+        <v>3.23</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
         <v>45146</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G8">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="H8">
-        <v>3.58</v>
+        <v>3.35</v>
       </c>
       <c r="I8">
-        <v>4.72</v>
+        <v>3.3</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
+        <v>1.8</v>
+      </c>
+      <c r="O8">
+        <v>1.9</v>
+      </c>
+      <c r="P8">
+        <v>1.36</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>1.73</v>
+      </c>
+      <c r="S8">
         <v>2</v>
       </c>
-      <c r="O8">
+      <c r="T8">
+        <v>1.32</v>
+      </c>
+      <c r="U8">
+        <v>1.25</v>
+      </c>
+      <c r="V8">
         <v>1.7</v>
       </c>
-      <c r="P8">
-        <v>1.4</v>
-      </c>
-      <c r="Q8">
-        <v>2.75</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>1.73</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
       <c r="W8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>1.85</v>
+        <v>2.27</v>
       </c>
       <c r="Z8">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>3.97</v>
+        <v>2.27</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1477,96 +1489,96 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
         <v>45146</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G9">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="H9">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="I9">
-        <v>5.97</v>
+        <v>4.75</v>
       </c>
       <c r="J9">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>2.29</v>
+        <v>1.7</v>
       </c>
       <c r="P9">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="Q9">
-        <v>3.48</v>
+        <v>2.75</v>
       </c>
       <c r="R9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.01</v>
+        <v>1.73</v>
       </c>
       <c r="T9">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>3.97</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1595,138 +1607,138 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2">
         <v>45146</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G10">
-        <v>4.2</v>
+        <v>1.36</v>
       </c>
       <c r="H10">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="I10">
-        <v>1.87</v>
+        <v>6.25</v>
       </c>
       <c r="J10">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K10">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="L10">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="M10">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="N10">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="O10">
-        <v>1.96</v>
+        <v>2.35</v>
       </c>
       <c r="P10">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="R10">
+        <v>1.75</v>
+      </c>
+      <c r="S10">
+        <v>2.01</v>
+      </c>
+      <c r="T10">
+        <v>1.08</v>
+      </c>
+      <c r="U10">
+        <v>1.2</v>
+      </c>
+      <c r="V10">
+        <v>2.7</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>1.8</v>
       </c>
-      <c r="S10">
-        <v>1.91</v>
-      </c>
-      <c r="T10">
-        <v>2.1</v>
-      </c>
-      <c r="U10">
-        <v>1.28</v>
-      </c>
-      <c r="V10">
-        <v>1.15</v>
-      </c>
-      <c r="W10">
-        <v>1.5</v>
-      </c>
-      <c r="X10">
-        <v>1.5</v>
-      </c>
-      <c r="Y10">
-        <v>1.33</v>
-      </c>
-      <c r="Z10">
-        <v>1.58</v>
-      </c>
-      <c r="AA10">
-        <v>2.91</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
         <v>45146</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G11">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H11">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="I11">
-        <v>3.39</v>
+        <v>3.1</v>
       </c>
       <c r="J11">
         <v>1.05</v>
@@ -1741,10 +1753,10 @@
         <v>3.25</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="P11">
         <v>1.4</v>
@@ -1798,203 +1810,203 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2">
         <v>45146</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G12">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="H12">
-        <v>5.78</v>
+        <v>3.6</v>
       </c>
       <c r="I12">
-        <v>9.68</v>
+        <v>1.6</v>
       </c>
       <c r="J12">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K12">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="L12">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="M12">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="O12">
-        <v>2.23</v>
+        <v>1.85</v>
       </c>
       <c r="P12">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="Q12">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R12">
+        <v>1.8</v>
+      </c>
+      <c r="S12">
+        <v>1.91</v>
+      </c>
+      <c r="T12">
+        <v>2.1</v>
+      </c>
+      <c r="U12">
+        <v>1.28</v>
+      </c>
+      <c r="V12">
+        <v>1.15</v>
+      </c>
+      <c r="W12">
+        <v>1.5</v>
+      </c>
+      <c r="X12">
+        <v>1.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.33</v>
+      </c>
+      <c r="Z12">
+        <v>1.58</v>
+      </c>
+      <c r="AA12">
+        <v>2.91</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>1.44</v>
+      </c>
+      <c r="AH12">
+        <v>1.83</v>
+      </c>
+      <c r="AI12">
         <v>2.3</v>
-      </c>
-      <c r="S12">
-        <v>1.53</v>
-      </c>
-      <c r="T12">
-        <v>1.03</v>
-      </c>
-      <c r="U12">
-        <v>1.1</v>
-      </c>
-      <c r="V12">
-        <v>4.6</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2">
         <v>45146</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G13">
-        <v>4.38</v>
+        <v>1.25</v>
       </c>
       <c r="H13">
-        <v>3.73</v>
+        <v>5.8</v>
       </c>
       <c r="I13">
-        <v>1.76</v>
+        <v>12</v>
       </c>
       <c r="J13">
         <v>1.02</v>
       </c>
       <c r="K13">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="L13">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M13">
-        <v>4.33</v>
+        <v>4.6</v>
       </c>
       <c r="N13">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="O13">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="P13">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="Q13">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="R13">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="T13">
-        <v>2.3</v>
+        <v>1.03</v>
       </c>
       <c r="U13">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="V13">
-        <v>1.16</v>
+        <v>4.6</v>
       </c>
       <c r="W13">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>5.22</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2012,13 +2024,13 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2029,138 +2041,138 @@
         <v>45146</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G14">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="H14">
-        <v>4.12</v>
+        <v>3.55</v>
       </c>
       <c r="I14">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="J14">
         <v>1.02</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L14">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N14">
-        <v>1.44</v>
+        <v>1.86</v>
       </c>
       <c r="O14">
-        <v>2.6</v>
+        <v>1.96</v>
       </c>
       <c r="P14">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="R14">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="S14">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="U14">
         <v>1.22</v>
       </c>
       <c r="V14">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="W14">
+        <v>2.5</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
         <v>2.29</v>
       </c>
-      <c r="X14">
-        <v>2.5</v>
-      </c>
-      <c r="Y14">
-        <v>1.74</v>
-      </c>
       <c r="Z14">
-        <v>1.8</v>
+        <v>2.93</v>
       </c>
       <c r="AA14">
-        <v>3.54</v>
+        <v>5.22</v>
       </c>
       <c r="AB14">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="AH14">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="AI14">
-        <v>2.09</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2">
         <v>45146</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G15">
-        <v>1.86</v>
+        <v>3.75</v>
       </c>
       <c r="H15">
-        <v>3.91</v>
+        <v>3.9</v>
       </c>
       <c r="I15">
-        <v>3.69</v>
+        <v>1.67</v>
       </c>
       <c r="J15">
         <v>1.02</v>
       </c>
       <c r="K15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>1.13</v>
@@ -2181,58 +2193,58 @@
         <v>3.75</v>
       </c>
       <c r="R15">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S15">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T15">
-        <v>1.33</v>
+        <v>1.78</v>
       </c>
       <c r="U15">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="V15">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="W15">
-        <v>1.63</v>
+        <v>2.29</v>
       </c>
       <c r="X15">
-        <v>0.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="Z15">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="AA15">
-        <v>3.02</v>
+        <v>3.54</v>
       </c>
       <c r="AB15">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="AC15">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD15">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="AE15">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AF15">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AG15">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AH15">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AI15">
-        <v>2.23</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2243,317 +2255,424 @@
         <v>45146</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="H16">
-        <v>3.41</v>
+        <v>3.65</v>
       </c>
       <c r="I16">
-        <v>5.19</v>
+        <v>3.05</v>
       </c>
       <c r="J16">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="K16">
-        <v>7.77</v>
+        <v>12</v>
       </c>
       <c r="L16">
-        <v>1.41</v>
+        <v>1.13</v>
       </c>
       <c r="M16">
-        <v>2.82</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>2.29</v>
+        <v>1.44</v>
       </c>
       <c r="O16">
+        <v>2.6</v>
+      </c>
+      <c r="P16">
+        <v>1.25</v>
+      </c>
+      <c r="Q16">
+        <v>3.75</v>
+      </c>
+      <c r="R16">
+        <v>1.44</v>
+      </c>
+      <c r="S16">
+        <v>2.63</v>
+      </c>
+      <c r="T16">
+        <v>1.33</v>
+      </c>
+      <c r="U16">
+        <v>1.23</v>
+      </c>
+      <c r="V16">
+        <v>1.64</v>
+      </c>
+      <c r="W16">
         <v>1.63</v>
       </c>
-      <c r="P16">
-        <v>1.49</v>
-      </c>
-      <c r="Q16">
-        <v>2.48</v>
-      </c>
-      <c r="R16">
-        <v>2.13</v>
-      </c>
-      <c r="S16">
-        <v>1.65</v>
-      </c>
-      <c r="T16">
-        <v>1.14</v>
-      </c>
-      <c r="U16">
-        <v>1.25</v>
-      </c>
-      <c r="V16">
-        <v>2.15</v>
-      </c>
-      <c r="W16">
-        <v>1.57</v>
-      </c>
       <c r="X16">
-        <v>1.71</v>
+        <v>0.63</v>
       </c>
       <c r="Y16">
-        <v>2.19</v>
+        <v>1.54</v>
       </c>
       <c r="Z16">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AA16">
-        <v>3.59</v>
+        <v>3.02</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2">
         <v>45146</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G17">
-        <v>1.23</v>
+        <v>1.73</v>
       </c>
       <c r="H17">
-        <v>5.76</v>
+        <v>3.5</v>
       </c>
       <c r="I17">
-        <v>10.96</v>
+        <v>4.75</v>
       </c>
       <c r="J17">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K17">
-        <v>18.25</v>
+        <v>7.77</v>
       </c>
       <c r="L17">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="M17">
-        <v>4.58</v>
+        <v>2.82</v>
       </c>
       <c r="N17">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="O17">
-        <v>2.29</v>
+        <v>1.65</v>
       </c>
       <c r="P17">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="Q17">
-        <v>3.3</v>
+        <v>2.48</v>
       </c>
       <c r="R17">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="S17">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T17">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="U17">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="V17">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="W17">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="X17">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="Y17">
-        <v>1.29</v>
+        <v>2.19</v>
       </c>
       <c r="Z17">
+        <v>1.4</v>
+      </c>
+      <c r="AA17">
+        <v>3.59</v>
+      </c>
+      <c r="AB17">
         <v>1.22</v>
       </c>
-      <c r="AA17">
-        <v>2.51</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
       <c r="AC17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <v>45146</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G18">
-        <v>2.29</v>
+        <v>1.22</v>
       </c>
       <c r="H18">
-        <v>3.11</v>
+        <v>5.5</v>
       </c>
       <c r="I18">
-        <v>3.11</v>
+        <v>15</v>
       </c>
       <c r="J18">
+        <v>1.03</v>
+      </c>
+      <c r="K18">
+        <v>18.25</v>
+      </c>
+      <c r="L18">
+        <v>1.2</v>
+      </c>
+      <c r="M18">
+        <v>4.58</v>
+      </c>
+      <c r="N18">
+        <v>1.53</v>
+      </c>
+      <c r="O18">
+        <v>2.35</v>
+      </c>
+      <c r="P18">
+        <v>1.28</v>
+      </c>
+      <c r="Q18">
+        <v>3.3</v>
+      </c>
+      <c r="R18">
+        <v>2.25</v>
+      </c>
+      <c r="S18">
+        <v>1.62</v>
+      </c>
+      <c r="T18">
         <v>1.06</v>
       </c>
-      <c r="K18">
+      <c r="U18">
+        <v>1.13</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>1.86</v>
+      </c>
+      <c r="X18">
+        <v>2.14</v>
+      </c>
+      <c r="Y18">
+        <v>1.29</v>
+      </c>
+      <c r="Z18">
+        <v>1.22</v>
+      </c>
+      <c r="AA18">
+        <v>2.51</v>
+      </c>
+      <c r="AB18">
+        <v>1.11</v>
+      </c>
+      <c r="AC18">
+        <v>11</v>
+      </c>
+      <c r="AD18">
+        <v>9</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>1.43</v>
+      </c>
+      <c r="AG18">
+        <v>1.7</v>
+      </c>
+      <c r="AH18">
+        <v>2.09</v>
+      </c>
+      <c r="AI18">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19">
+        <v>2.4</v>
+      </c>
+      <c r="H19">
+        <v>2.85</v>
+      </c>
+      <c r="I19">
+        <v>3.3</v>
+      </c>
+      <c r="J19">
+        <v>1.06</v>
+      </c>
+      <c r="K19">
         <v>8.6</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>1.37</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>2.98</v>
       </c>
-      <c r="N18">
-        <v>2.16</v>
-      </c>
-      <c r="O18">
+      <c r="N19">
+        <v>2.1</v>
+      </c>
+      <c r="O19">
+        <v>1.65</v>
+      </c>
+      <c r="P19">
+        <v>1.44</v>
+      </c>
+      <c r="Q19">
+        <v>2.63</v>
+      </c>
+      <c r="R19">
+        <v>1.86</v>
+      </c>
+      <c r="S19">
+        <v>1.86</v>
+      </c>
+      <c r="T19">
+        <v>1.36</v>
+      </c>
+      <c r="U19">
+        <v>1.3</v>
+      </c>
+      <c r="V19">
+        <v>1.62</v>
+      </c>
+      <c r="W19">
+        <v>1.71</v>
+      </c>
+      <c r="X19">
+        <v>1.86</v>
+      </c>
+      <c r="Y19">
+        <v>2.22</v>
+      </c>
+      <c r="Z19">
+        <v>2.11</v>
+      </c>
+      <c r="AA19">
+        <v>4.33</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>1.38</v>
+      </c>
+      <c r="AG19">
         <v>1.7</v>
       </c>
-      <c r="P18">
-        <v>1.44</v>
-      </c>
-      <c r="Q18">
-        <v>2.63</v>
-      </c>
-      <c r="R18">
-        <v>1.86</v>
-      </c>
-      <c r="S18">
-        <v>1.86</v>
-      </c>
-      <c r="T18">
-        <v>1.36</v>
-      </c>
-      <c r="U18">
-        <v>1.3</v>
-      </c>
-      <c r="V18">
-        <v>1.62</v>
-      </c>
-      <c r="W18">
-        <v>1.71</v>
-      </c>
-      <c r="X18">
-        <v>1.86</v>
-      </c>
-      <c r="Y18">
-        <v>2.22</v>
-      </c>
-      <c r="Z18">
-        <v>2.11</v>
-      </c>
-      <c r="AA18">
-        <v>4.33</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
+      <c r="AH19">
+        <v>2.05</v>
+      </c>
+      <c r="AI19">
+        <v>2.77</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -187,21 +187,21 @@
     <t>Helsingborg</t>
   </si>
   <si>
+    <t>Raków Częstochowa</t>
+  </si>
+  <si>
     <t>København</t>
   </si>
   <si>
-    <t>Raków Częstochowa</t>
-  </si>
-  <si>
     <t>PSV</t>
   </si>
   <si>
+    <t>KÍ</t>
+  </si>
+  <si>
     <t>AEK Athens</t>
   </si>
   <si>
-    <t>KÍ</t>
-  </si>
-  <si>
     <t>Sporting Braga</t>
   </si>
   <si>
@@ -241,19 +241,19 @@
     <t>Örgryte</t>
   </si>
   <si>
+    <t>Aris</t>
+  </si>
+  <si>
     <t>Sparta Praha</t>
   </si>
   <si>
-    <t>Aris</t>
-  </si>
-  <si>
     <t>Sturm Graz</t>
   </si>
   <si>
+    <t>Molde</t>
+  </si>
+  <si>
     <t>Dinamo Zagreb</t>
-  </si>
-  <si>
-    <t>Molde</t>
   </si>
   <si>
     <t>Bačka Topola</t>
@@ -769,13 +769,13 @@
         <v>69</v>
       </c>
       <c r="G2">
-        <v>2.95</v>
+        <v>2.78</v>
       </c>
       <c r="H2">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I2">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="J2">
         <v>1.01</v>
@@ -790,10 +790,10 @@
         <v>3.5</v>
       </c>
       <c r="N2">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="O2">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="P2">
         <v>1.38</v>
@@ -817,10 +817,10 @@
         <v>1.36</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="X2">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="Y2">
         <v>1.5</v>
@@ -983,13 +983,13 @@
         <v>71</v>
       </c>
       <c r="G4">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J4">
         <v>1.01</v>
@@ -1004,7 +1004,7 @@
         <v>3.75</v>
       </c>
       <c r="N4">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="O4">
         <v>1.95</v>
@@ -1090,13 +1090,13 @@
         <v>72</v>
       </c>
       <c r="G5">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="H5">
-        <v>3.6</v>
+        <v>3.64</v>
       </c>
       <c r="I5">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="J5">
         <v>1.03</v>
@@ -1111,10 +1111,10 @@
         <v>4</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="O5">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="P5">
         <v>1.28</v>
@@ -1197,13 +1197,13 @@
         <v>73</v>
       </c>
       <c r="G6">
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="H6">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="I6">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J6">
         <v>1.02</v>
@@ -1218,10 +1218,10 @@
         <v>4</v>
       </c>
       <c r="N6">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="O6">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="P6">
         <v>1.3</v>
@@ -1304,13 +1304,13 @@
         <v>74</v>
       </c>
       <c r="G7">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="H7">
-        <v>3.7</v>
+        <v>3.38</v>
       </c>
       <c r="I7">
-        <v>2.86</v>
+        <v>3.19</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -1325,10 +1325,10 @@
         <v>3.65</v>
       </c>
       <c r="N7">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="O7">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P7">
         <v>1.36</v>
@@ -1376,7 +1376,7 @@
         <v>2.75</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF7">
         <v>1.3</v>
@@ -1411,91 +1411,91 @@
         <v>75</v>
       </c>
       <c r="G8">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="H8">
-        <v>3.35</v>
+        <v>3.84</v>
       </c>
       <c r="I8">
-        <v>3.3</v>
+        <v>5.15</v>
       </c>
       <c r="J8">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K8">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="L8">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="O8">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="P8">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q8">
+        <v>2.75</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>1.73</v>
+      </c>
+      <c r="T8">
+        <v>1.16</v>
+      </c>
+      <c r="U8">
+        <v>1.24</v>
+      </c>
+      <c r="V8">
+        <v>1.97</v>
+      </c>
+      <c r="W8">
+        <v>2.5</v>
+      </c>
+      <c r="X8">
         <v>3</v>
       </c>
-      <c r="R8">
-        <v>1.73</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>1.32</v>
-      </c>
-      <c r="U8">
-        <v>1.25</v>
-      </c>
-      <c r="V8">
-        <v>1.7</v>
-      </c>
-      <c r="W8">
-        <v>3</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
+        <v>1.85</v>
+      </c>
+      <c r="Z8">
+        <v>2.12</v>
+      </c>
+      <c r="AA8">
+        <v>3.97</v>
+      </c>
+      <c r="AB8">
+        <v>1.69</v>
+      </c>
+      <c r="AC8">
+        <v>9.1</v>
+      </c>
+      <c r="AD8">
+        <v>2.55</v>
+      </c>
+      <c r="AE8">
+        <v>1.23</v>
+      </c>
+      <c r="AF8">
+        <v>1.45</v>
+      </c>
+      <c r="AG8">
+        <v>1.75</v>
+      </c>
+      <c r="AH8">
         <v>2.27</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>2.27</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>1.7</v>
-      </c>
-      <c r="AH8">
-        <v>2.15</v>
-      </c>
       <c r="AI8">
-        <v>2.9</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1518,91 +1518,91 @@
         <v>76</v>
       </c>
       <c r="G9">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="H9">
-        <v>3.35</v>
+        <v>3.58</v>
       </c>
       <c r="I9">
-        <v>4.75</v>
+        <v>3.44</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
+        <v>1.98</v>
+      </c>
+      <c r="O9">
+        <v>1.74</v>
+      </c>
+      <c r="P9">
+        <v>1.36</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>1.73</v>
+      </c>
+      <c r="S9">
         <v>2</v>
       </c>
-      <c r="O9">
+      <c r="T9">
+        <v>1.32</v>
+      </c>
+      <c r="U9">
+        <v>1.25</v>
+      </c>
+      <c r="V9">
         <v>1.7</v>
       </c>
-      <c r="P9">
-        <v>1.4</v>
-      </c>
-      <c r="Q9">
-        <v>2.75</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>2.27</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>2.27</v>
+      </c>
+      <c r="AB9">
         <v>1.73</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>2.5</v>
-      </c>
-      <c r="X9">
-        <v>3</v>
-      </c>
-      <c r="Y9">
-        <v>1.85</v>
-      </c>
-      <c r="Z9">
-        <v>2.12</v>
-      </c>
-      <c r="AA9">
-        <v>3.97</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
       <c r="AC9">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1625,13 +1625,13 @@
         <v>77</v>
       </c>
       <c r="G10">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="H10">
-        <v>4.4</v>
+        <v>4.85</v>
       </c>
       <c r="I10">
-        <v>6.25</v>
+        <v>7.1</v>
       </c>
       <c r="J10">
         <v>1.02</v>
@@ -1646,10 +1646,10 @@
         <v>4.6</v>
       </c>
       <c r="N10">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="O10">
-        <v>2.35</v>
+        <v>2.21</v>
       </c>
       <c r="P10">
         <v>1.28</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG10">
         <v>1.8</v>
@@ -1732,37 +1732,37 @@
         <v>78</v>
       </c>
       <c r="G11">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="H11">
-        <v>3.1</v>
+        <v>3.88</v>
       </c>
       <c r="I11">
-        <v>3.1</v>
+        <v>1.64</v>
       </c>
       <c r="J11">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="L11">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="M11">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="O11">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="P11">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>1.8</v>
@@ -1771,52 +1771,52 @@
         <v>1.91</v>
       </c>
       <c r="T11">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="U11">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="V11">
-        <v>1.7</v>
+        <v>1.15</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Z11">
+        <v>1.58</v>
+      </c>
+      <c r="AA11">
+        <v>2.91</v>
+      </c>
+      <c r="AB11">
+        <v>3.8</v>
+      </c>
+      <c r="AC11">
+        <v>8</v>
+      </c>
+      <c r="AD11">
         <v>1.4</v>
       </c>
-      <c r="AA11">
-        <v>1.4</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG11">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="AH11">
+        <v>1.83</v>
+      </c>
+      <c r="AI11">
         <v>2.3</v>
-      </c>
-      <c r="AI11">
-        <v>3.2</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1839,37 +1839,37 @@
         <v>79</v>
       </c>
       <c r="G12">
-        <v>4.75</v>
+        <v>2.18</v>
       </c>
       <c r="H12">
-        <v>3.6</v>
+        <v>3.36</v>
       </c>
       <c r="I12">
-        <v>1.6</v>
+        <v>3.32</v>
       </c>
       <c r="J12">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K12">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="M12">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="O12">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="P12">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R12">
         <v>1.8</v>
@@ -1878,52 +1878,52 @@
         <v>1.91</v>
       </c>
       <c r="T12">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="U12">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V12">
-        <v>1.15</v>
+        <v>1.7</v>
       </c>
       <c r="W12">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Y12">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="AA12">
-        <v>2.91</v>
+        <v>1.4</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AG12">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AH12">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="AI12">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1946,13 +1946,13 @@
         <v>80</v>
       </c>
       <c r="G13">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="H13">
-        <v>5.8</v>
+        <v>6.95</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J13">
         <v>1.02</v>
@@ -1967,10 +1967,10 @@
         <v>4.6</v>
       </c>
       <c r="N13">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="O13">
-        <v>2.32</v>
+        <v>2.23</v>
       </c>
       <c r="P13">
         <v>1.26</v>
@@ -2009,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG13">
         <v>1.67</v>
@@ -2053,13 +2053,13 @@
         <v>81</v>
       </c>
       <c r="G14">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H14">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I14">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J14">
         <v>1.02</v>
@@ -2074,10 +2074,10 @@
         <v>4.33</v>
       </c>
       <c r="N14">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="O14">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="P14">
         <v>1.29</v>
@@ -2116,19 +2116,19 @@
         <v>5.22</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG14">
         <v>1.83</v>
@@ -2160,13 +2160,13 @@
         <v>82</v>
       </c>
       <c r="G15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="H15">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="I15">
-        <v>1.67</v>
+        <v>2.01</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2181,10 +2181,10 @@
         <v>5</v>
       </c>
       <c r="N15">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O15">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P15">
         <v>1.25</v>
@@ -2267,13 +2267,13 @@
         <v>83</v>
       </c>
       <c r="G16">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="H16">
-        <v>3.65</v>
+        <v>3.86</v>
       </c>
       <c r="I16">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
       <c r="J16">
         <v>1.02</v>
@@ -2288,10 +2288,10 @@
         <v>5</v>
       </c>
       <c r="N16">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O16">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P16">
         <v>1.25</v>
@@ -2374,13 +2374,13 @@
         <v>84</v>
       </c>
       <c r="G17">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="H17">
-        <v>3.5</v>
+        <v>3.68</v>
       </c>
       <c r="I17">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J17">
         <v>1.07</v>
@@ -2395,10 +2395,10 @@
         <v>2.82</v>
       </c>
       <c r="N17">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="O17">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="P17">
         <v>1.49</v>
@@ -2446,7 +2446,7 @@
         <v>5.5</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF17">
         <v>1.4</v>
@@ -2481,13 +2481,13 @@
         <v>85</v>
       </c>
       <c r="G18">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="H18">
-        <v>5.5</v>
+        <v>6.95</v>
       </c>
       <c r="I18">
-        <v>15</v>
+        <v>14.75</v>
       </c>
       <c r="J18">
         <v>1.03</v>
@@ -2502,10 +2502,10 @@
         <v>4.58</v>
       </c>
       <c r="N18">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="O18">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="P18">
         <v>1.28</v>
@@ -2588,13 +2588,13 @@
         <v>86</v>
       </c>
       <c r="G19">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H19">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="I19">
-        <v>3.3</v>
+        <v>3.02</v>
       </c>
       <c r="J19">
         <v>1.06</v>
@@ -2609,10 +2609,10 @@
         <v>2.98</v>
       </c>
       <c r="N19">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="O19">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P19">
         <v>1.44</v>
@@ -2651,16 +2651,16 @@
         <v>4.33</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF19">
         <v>1.38</v>

--- a/Jogos_do_Dia/2023-08-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -867,7 +867,7 @@
         <v>42</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>52</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="X3">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="Y3">
         <v>1.71</v>
@@ -1031,10 +1031,10 @@
         <v>2.05</v>
       </c>
       <c r="W4">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X4">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="Y4">
         <v>1.33</v>
@@ -1138,10 +1138,10 @@
         <v>1.55</v>
       </c>
       <c r="W5">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="X5">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="Y5">
         <v>1.2</v>
@@ -1245,10 +1245,10 @@
         <v>1.11</v>
       </c>
       <c r="W6">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="X6">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="Y6">
         <v>1.55</v>
@@ -1304,13 +1304,13 @@
         <v>74</v>
       </c>
       <c r="G7">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="H7">
-        <v>3.38</v>
+        <v>3.5</v>
       </c>
       <c r="I7">
-        <v>3.19</v>
+        <v>3.25</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -1352,10 +1352,10 @@
         <v>1.74</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="X7">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="Y7">
         <v>1.6</v>
@@ -1411,13 +1411,13 @@
         <v>75</v>
       </c>
       <c r="G8">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H8">
-        <v>3.84</v>
+        <v>3.75</v>
       </c>
       <c r="I8">
-        <v>5.15</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>1.05</v>
@@ -1432,10 +1432,10 @@
         <v>3.1</v>
       </c>
       <c r="N8">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P8">
         <v>1.4</v>
@@ -1459,10 +1459,10 @@
         <v>1.97</v>
       </c>
       <c r="W8">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y8">
         <v>1.85</v>
@@ -1518,13 +1518,13 @@
         <v>76</v>
       </c>
       <c r="G9">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H9">
-        <v>3.58</v>
+        <v>3.2</v>
       </c>
       <c r="I9">
-        <v>3.44</v>
+        <v>3.05</v>
       </c>
       <c r="J9">
         <v>1.04</v>
@@ -1539,10 +1539,10 @@
         <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="O9">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="P9">
         <v>1.36</v>
@@ -1566,10 +1566,10 @@
         <v>1.7</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>2.27</v>
@@ -1625,13 +1625,13 @@
         <v>77</v>
       </c>
       <c r="G10">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="H10">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="I10">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="J10">
         <v>1.02</v>
@@ -1646,10 +1646,10 @@
         <v>4.6</v>
       </c>
       <c r="N10">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="O10">
-        <v>2.21</v>
+        <v>2.4</v>
       </c>
       <c r="P10">
         <v>1.28</v>
@@ -1673,7 +1673,7 @@
         <v>2.7</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         <v>78</v>
       </c>
       <c r="G11">
-        <v>5.25</v>
+        <v>5.1</v>
       </c>
       <c r="H11">
-        <v>3.88</v>
+        <v>3.87</v>
       </c>
       <c r="I11">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="J11">
         <v>1.04</v>
@@ -1753,10 +1753,10 @@
         <v>3.75</v>
       </c>
       <c r="N11">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="O11">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P11">
         <v>1.36</v>
@@ -1780,10 +1780,10 @@
         <v>1.15</v>
       </c>
       <c r="W11">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>1.33</v>
@@ -1946,13 +1946,13 @@
         <v>80</v>
       </c>
       <c r="G13">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H13">
-        <v>6.95</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J13">
         <v>1.02</v>
@@ -1967,10 +1967,10 @@
         <v>4.6</v>
       </c>
       <c r="N13">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="O13">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="P13">
         <v>1.26</v>
@@ -1994,7 +1994,7 @@
         <v>4.6</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>81</v>
       </c>
       <c r="G14">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="H14">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I14">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J14">
         <v>1.02</v>
@@ -2074,10 +2074,10 @@
         <v>4.33</v>
       </c>
       <c r="N14">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O14">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P14">
         <v>1.29</v>
@@ -2101,10 +2101,10 @@
         <v>1.16</v>
       </c>
       <c r="W14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="Y14">
         <v>2.29</v>
@@ -2160,13 +2160,13 @@
         <v>82</v>
       </c>
       <c r="G15">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H15">
-        <v>3.94</v>
+        <v>3.75</v>
       </c>
       <c r="I15">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2208,10 +2208,10 @@
         <v>1.26</v>
       </c>
       <c r="W15">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Y15">
         <v>1.74</v>
@@ -2267,13 +2267,13 @@
         <v>83</v>
       </c>
       <c r="G16">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>3.86</v>
+        <v>3.75</v>
       </c>
       <c r="I16">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="J16">
         <v>1.02</v>
@@ -2315,10 +2315,10 @@
         <v>1.64</v>
       </c>
       <c r="W16">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="X16">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="Y16">
         <v>1.54</v>
@@ -2374,13 +2374,13 @@
         <v>84</v>
       </c>
       <c r="G17">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="H17">
-        <v>3.68</v>
+        <v>3.49</v>
       </c>
       <c r="I17">
-        <v>5.25</v>
+        <v>4.84</v>
       </c>
       <c r="J17">
         <v>1.07</v>
@@ -2395,10 +2395,10 @@
         <v>2.82</v>
       </c>
       <c r="N17">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="P17">
         <v>1.49</v>
@@ -2422,10 +2422,10 @@
         <v>2.15</v>
       </c>
       <c r="W17">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="X17">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="Y17">
         <v>2.19</v>
@@ -2481,13 +2481,13 @@
         <v>85</v>
       </c>
       <c r="G18">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H18">
-        <v>6.95</v>
+        <v>7.12</v>
       </c>
       <c r="I18">
-        <v>14.75</v>
+        <v>16.09</v>
       </c>
       <c r="J18">
         <v>1.03</v>
@@ -2502,10 +2502,10 @@
         <v>4.58</v>
       </c>
       <c r="N18">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="O18">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="P18">
         <v>1.28</v>
@@ -2529,10 +2529,10 @@
         <v>4</v>
       </c>
       <c r="W18">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="X18">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="Y18">
         <v>1.29</v>
@@ -2553,7 +2553,7 @@
         <v>9</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AF18">
         <v>1.43</v>
@@ -2588,13 +2588,13 @@
         <v>86</v>
       </c>
       <c r="G19">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="H19">
         <v>3.3</v>
       </c>
       <c r="I19">
-        <v>3.02</v>
+        <v>3.11</v>
       </c>
       <c r="J19">
         <v>1.06</v>
@@ -2609,10 +2609,10 @@
         <v>2.98</v>
       </c>
       <c r="N19">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P19">
         <v>1.44</v>
@@ -2636,10 +2636,10 @@
         <v>1.62</v>
       </c>
       <c r="W19">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="X19">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="Y19">
         <v>2.22</v>
